--- a/Floor_5/Right_wing.xlsx
+++ b/Floor_5/Right_wing.xlsx
@@ -490,7 +490,7 @@
           <t>1.10</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n"/>
+      <c r="K2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -498,7 +498,7 @@
           <t>2.10</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n"/>
+      <c r="L3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -514,7 +514,7 @@
           <t>4.10</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -522,7 +522,7 @@
           <t>5.10</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n"/>
+      <c r="D6" s="1" t="n"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -530,7 +530,7 @@
           <t>6.10</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -538,7 +538,7 @@
           <t>7.10</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n"/>
+      <c r="F8" s="1" t="n"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -546,7 +546,7 @@
           <t>8.10</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -554,7 +554,7 @@
           <t>9.10</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n"/>
+      <c r="H10" s="1" t="n"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -562,7 +562,7 @@
           <t>10.10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n"/>
+      <c r="I11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -570,7 +570,7 @@
           <t>11.10</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n"/>
+      <c r="J12" s="1" t="n"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -578,7 +578,7 @@
           <t>12.10</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n"/>
+      <c r="K13" s="1" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -586,7 +586,7 @@
           <t>13.10</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n"/>
+      <c r="L14" s="1" t="n"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -602,7 +602,7 @@
           <t>15.10</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -610,7 +610,7 @@
           <t>16.10</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n"/>
+      <c r="D17" s="1" t="n"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -618,7 +618,7 @@
           <t>17.10</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n"/>
+      <c r="E18" s="1" t="n"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -626,7 +626,7 @@
           <t>18.10</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n"/>
+      <c r="F19" s="1" t="n"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -634,7 +634,7 @@
           <t>19.10</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n"/>
+      <c r="G20" s="1" t="n"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -642,7 +642,7 @@
           <t>20.10</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n"/>
+      <c r="H21" s="1" t="n"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -650,7 +650,7 @@
           <t>21.10</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n"/>
+      <c r="I22" s="1" t="n"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -658,7 +658,7 @@
           <t>22.10</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n"/>
+      <c r="J23" s="1" t="n"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -666,7 +666,7 @@
           <t>23.10</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n"/>
+      <c r="K24" s="1" t="n"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -674,7 +674,7 @@
           <t>24.10</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n"/>
+      <c r="L25" s="1" t="n"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -690,7 +690,7 @@
           <t>26.10</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="n"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -698,7 +698,7 @@
           <t>27.10</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n"/>
+      <c r="D28" s="1" t="n"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -706,7 +706,7 @@
           <t>28.10</t>
         </is>
       </c>
-      <c r="B29" s="1" t="n"/>
+      <c r="E29" s="1" t="n"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -714,7 +714,7 @@
           <t>29.10</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n"/>
+      <c r="F30" s="1" t="n"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -722,7 +722,7 @@
           <t>30.10</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n"/>
+      <c r="G31" s="1" t="n"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -730,7 +730,7 @@
           <t>31.10</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n"/>
+      <c r="H32" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
